--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379ACBF8-BE98-455D-A915-B59C7E7C81E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45949F9-FCAD-47D4-8DDA-30464AA44241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -140,13 +140,49 @@
   </si>
   <si>
     <t>did by all member by screen sharing.</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>correct and refine block diagram</t>
+  </si>
+  <si>
+    <t>add subsystem</t>
+  </si>
+  <si>
+    <t>refine subsystem</t>
+  </si>
+  <si>
+    <t>correct and refine usecase diagram</t>
+  </si>
+  <si>
+    <t>add constraint block to block diagram</t>
+  </si>
+  <si>
+    <t>decide appropriate pattern</t>
+  </si>
+  <si>
+    <t>define subsystem</t>
+  </si>
+  <si>
+    <t>refine design idea</t>
+  </si>
+  <si>
+    <t>understand all design patern</t>
+  </si>
+  <si>
+    <t>each task did by three persond and need to be presented in the next meeting</t>
+  </si>
+  <si>
+    <t>decided pattern : Microkernel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +190,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +233,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,11 +309,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -253,51 +412,111 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A2:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -638,33 +857,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -720,43 +939,43 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="33">
         <v>44297</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="33">
         <v>44295</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="18">
         <v>44297</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="18">
         <v>44295</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="33">
         <v>44297</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="33">
         <v>44295</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="18">
         <v>44295</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="33">
         <v>44297</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="33">
         <v>44295</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="18">
         <v>44297</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="18">
         <v>44295</v>
       </c>
     </row>
@@ -767,19 +986,19 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -788,11 +1007,11 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="4">
+      <c r="C6" s="16"/>
+      <c r="D6" s="36">
         <v>44298</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="36">
         <v>44297</v>
       </c>
       <c r="F6" s="4">
@@ -801,10 +1020,10 @@
       <c r="G6" s="4">
         <v>44297</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="36">
         <v>44298</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="36">
         <v>44297</v>
       </c>
       <c r="J6" s="4">
@@ -813,10 +1032,10 @@
       <c r="K6" s="4">
         <v>44297</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="36">
         <v>44298</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="36">
         <v>44297</v>
       </c>
       <c r="N6" s="4">
@@ -833,13 +1052,13 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="36">
         <v>44300</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="36">
         <v>44298</v>
       </c>
       <c r="F7" s="4">
@@ -848,10 +1067,10 @@
       <c r="G7" s="4">
         <v>44298</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="36">
         <v>44300</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="36">
         <v>44298</v>
       </c>
       <c r="J7" s="4">
@@ -860,10 +1079,10 @@
       <c r="K7" s="4">
         <v>44298</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="36">
         <v>44300</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="36">
         <v>44298</v>
       </c>
       <c r="N7" s="4">
@@ -880,21 +1099,21 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -905,13 +1124,13 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="36">
         <v>44299</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="36">
         <v>44297</v>
       </c>
       <c r="F9" s="4">
@@ -920,10 +1139,10 @@
       <c r="G9" s="4">
         <v>44297</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="36">
         <v>44299</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="36">
         <v>44297</v>
       </c>
       <c r="J9" s="4">
@@ -932,10 +1151,10 @@
       <c r="K9" s="4">
         <v>44297</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="36">
         <v>44299</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="36">
         <v>44297</v>
       </c>
       <c r="N9" s="4">
@@ -945,20 +1164,20 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="36">
         <v>44299</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="36">
         <v>44298</v>
       </c>
       <c r="F10" s="4">
@@ -967,327 +1186,686 @@
       <c r="G10" s="4">
         <v>44298</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+    <row r="11" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="32"/>
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="33">
+        <v>44304</v>
+      </c>
+      <c r="E12" s="33">
+        <v>44302</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44304</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44302</v>
+      </c>
+      <c r="H12" s="33">
+        <v>44304</v>
+      </c>
+      <c r="I12" s="33">
+        <v>44302</v>
+      </c>
+      <c r="J12" s="8">
+        <v>44304</v>
+      </c>
+      <c r="K12" s="8">
+        <v>44302</v>
+      </c>
+      <c r="L12" s="33">
+        <v>44304</v>
+      </c>
+      <c r="M12" s="33">
+        <v>44302</v>
+      </c>
+      <c r="N12" s="8">
+        <v>44304</v>
+      </c>
+      <c r="O12" s="8">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="4">
+        <v>44309</v>
+      </c>
+      <c r="K14" s="4">
+        <v>44306</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="36">
+        <v>44309</v>
+      </c>
+      <c r="I15" s="36">
+        <v>44306</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="E16" s="17">
-        <v>44302</v>
-      </c>
-      <c r="F16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="G16" s="17">
-        <v>44302</v>
-      </c>
-      <c r="H16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="I16" s="17">
-        <v>44302</v>
-      </c>
-      <c r="J16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="K16" s="17">
-        <v>44302</v>
-      </c>
-      <c r="L16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="M16" s="17">
-        <v>44302</v>
-      </c>
-      <c r="N16" s="17">
-        <v>44304</v>
-      </c>
-      <c r="O16" s="17">
-        <v>44302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="36">
+        <v>44309</v>
+      </c>
+      <c r="E16" s="36">
+        <v>44306</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="4">
+        <v>44309</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44306</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="36">
         <v>44309</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="36">
         <v>44306</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>4</v>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="32">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="4">
         <v>44309</v>
       </c>
-      <c r="I19" s="4">
+      <c r="O19" s="4">
         <v>44306</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4">
-        <v>44309</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44306</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="32"/>
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="28">
+        <v>44310</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4">
-        <v>44309</v>
-      </c>
-      <c r="G21" s="4">
-        <v>44306</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="33">
+        <v>44312</v>
+      </c>
+      <c r="E21" s="33">
+        <v>44310</v>
+      </c>
+      <c r="F21" s="25">
+        <v>44312</v>
+      </c>
+      <c r="G21" s="18">
+        <v>44310</v>
+      </c>
+      <c r="H21" s="33">
+        <v>44312</v>
+      </c>
+      <c r="I21" s="33">
+        <v>44310</v>
+      </c>
+      <c r="J21" s="25">
+        <v>44312</v>
+      </c>
+      <c r="K21" s="18">
+        <v>44310</v>
+      </c>
+      <c r="L21" s="33">
+        <v>44312</v>
+      </c>
+      <c r="M21" s="33">
+        <v>44310</v>
+      </c>
+      <c r="N21" s="25">
+        <v>44312</v>
+      </c>
+      <c r="O21" s="18">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>44309</v>
-      </c>
-      <c r="M22" s="4">
-        <v>44306</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>8</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4">
-        <v>44309</v>
-      </c>
-      <c r="O23" s="4">
-        <v>44306</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="32"/>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="32"/>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="36">
+        <v>44311</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4">
+        <v>44311</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="32"/>
+      <c r="B26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="28">
+        <v>44312</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="32"/>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="32"/>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="32"/>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="32"/>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="32"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="32"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="32"/>
+      <c r="B33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="28">
+        <v>44316</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="32"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="32"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="32"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="32"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="32"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="32"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
+  <mergeCells count="58">
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -1304,17 +1882,20 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45949F9-FCAD-47D4-8DDA-30464AA44241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF39ECF-FD96-41AD-95F8-7A9826397D41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -163,9 +163,6 @@
     <t>decide appropriate pattern</t>
   </si>
   <si>
-    <t>define subsystem</t>
-  </si>
-  <si>
     <t>refine design idea</t>
   </si>
   <si>
@@ -176,6 +173,27 @@
   </si>
   <si>
     <t>decided pattern : Microkernel</t>
+  </si>
+  <si>
+    <t>move subsystem</t>
+  </si>
+  <si>
+    <t>communication sub system</t>
+  </si>
+  <si>
+    <t>save people subsystem</t>
+  </si>
+  <si>
+    <t>notification subsystem</t>
+  </si>
+  <si>
+    <t>extinguish subsystem</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>refine system architecture</t>
   </si>
 </sst>
 </file>
@@ -249,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -391,6 +409,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -421,6 +498,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,86 +588,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -842,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O40"/>
+  <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -857,33 +964,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -939,43 +1046,43 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="23">
         <v>44297</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="23">
         <v>44295</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="22">
         <v>44297</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="22">
         <v>44295</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="23">
         <v>44297</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="23">
         <v>44295</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="22">
         <v>44295</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="23">
         <v>44297</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="23">
         <v>44295</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="22">
         <v>44297</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="22">
         <v>44295</v>
       </c>
     </row>
@@ -986,19 +1093,19 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1007,11 +1114,11 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="36">
+      <c r="C6" s="28"/>
+      <c r="D6" s="12">
         <v>44298</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="12">
         <v>44297</v>
       </c>
       <c r="F6" s="4">
@@ -1020,10 +1127,10 @@
       <c r="G6" s="4">
         <v>44297</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="12">
         <v>44298</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="12">
         <v>44297</v>
       </c>
       <c r="J6" s="4">
@@ -1032,10 +1139,10 @@
       <c r="K6" s="4">
         <v>44297</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="12">
         <v>44298</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="12">
         <v>44297</v>
       </c>
       <c r="N6" s="4">
@@ -1055,10 +1162,10 @@
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="12">
         <v>44300</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="12">
         <v>44298</v>
       </c>
       <c r="F7" s="4">
@@ -1067,10 +1174,10 @@
       <c r="G7" s="4">
         <v>44298</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="12">
         <v>44300</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="12">
         <v>44298</v>
       </c>
       <c r="J7" s="4">
@@ -1079,10 +1186,10 @@
       <c r="K7" s="4">
         <v>44298</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="12">
         <v>44300</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="12">
         <v>44298</v>
       </c>
       <c r="N7" s="4">
@@ -1102,18 +1209,18 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -1127,10 +1234,10 @@
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="12">
         <v>44299</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="12">
         <v>44297</v>
       </c>
       <c r="F9" s="4">
@@ -1139,10 +1246,10 @@
       <c r="G9" s="4">
         <v>44297</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="12">
         <v>44299</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="12">
         <v>44297</v>
       </c>
       <c r="J9" s="4">
@@ -1151,10 +1258,10 @@
       <c r="K9" s="4">
         <v>44297</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="12">
         <v>44299</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="12">
         <v>44297</v>
       </c>
       <c r="N9" s="4">
@@ -1174,10 +1281,10 @@
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="12">
         <v>44299</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="12">
         <v>44298</v>
       </c>
       <c r="F10" s="4">
@@ -1186,32 +1293,32 @@
       <c r="G10" s="4">
         <v>44298</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -1220,43 +1327,43 @@
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="23">
         <v>44304</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="23">
         <v>44302</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="35">
         <v>44304</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="35">
         <v>44302</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="23">
         <v>44304</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="23">
         <v>44302</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="35">
         <v>44304</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="35">
         <v>44302</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="23">
         <v>44304</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="23">
         <v>44302</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="35">
         <v>44304</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="35">
         <v>44302</v>
       </c>
     </row>
@@ -1267,19 +1374,19 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -1288,23 +1395,23 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4">
         <v>44309</v>
       </c>
       <c r="K14" s="4">
         <v>44306</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
@@ -1315,21 +1422,21 @@
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="36">
+      <c r="H15" s="12">
         <v>44309</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="12">
         <v>44306</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -1340,21 +1447,21 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="36">
+      <c r="C16" s="33"/>
+      <c r="D16" s="12">
         <v>44309</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="12">
         <v>44306</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -1365,21 +1472,21 @@
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4">
         <v>44309</v>
       </c>
       <c r="G17" s="4">
         <v>44306</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
@@ -1390,42 +1497,42 @@
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="36">
+      <c r="L18" s="12">
         <v>44309</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="12">
         <v>44306</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="32">
+      <c r="A19" s="10">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="4">
         <v>44309</v>
       </c>
@@ -1434,349 +1541,403 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="28">
+      <c r="D20" s="14">
         <v>44310</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="23">
         <v>44312</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="23">
         <v>44310</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>44312</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="22">
         <v>44310</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="23">
         <v>44312</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="23">
         <v>44310</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <v>44312</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="22">
         <v>44310</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="23">
         <v>44312</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="23">
         <v>44310</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="24">
         <v>44312</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="22">
         <v>44310</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="32"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="32"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="27"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="27"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="32"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36">
+      <c r="D25" s="13"/>
+      <c r="E25" s="12">
         <v>44311</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4">
         <v>44311</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="5"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="35"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="5"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="28">
+      <c r="D26" s="14">
         <v>44312</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="32"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32"/>
-      <c r="B28" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="23">
+        <v>44316</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="24">
+        <v>44316</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="23">
+        <v>44316</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="24">
+        <v>44316</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="23">
+        <v>44316</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="24">
+        <v>44316</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="42"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32"/>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>45</v>
+      <c r="M28" s="11"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="42"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="3"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="L29" s="23"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="32"/>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="32"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="40"/>
+    </row>
+    <row r="30" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="42"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="42"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="40"/>
+    </row>
+    <row r="32" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="42"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32"/>
-      <c r="B33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="28">
+      <c r="D32" s="23"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="40"/>
+    </row>
+    <row r="33" spans="1:15" ht="51.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="42"/>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="12">
+        <v>44312</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="46">
         <v>44316</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="32"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="12">
+        <v>44312</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="46">
+        <v>44316</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="12">
+        <v>44312</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="47">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="24.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="42"/>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="42"/>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="40" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1785,15 +1946,15 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="32"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1802,24 +1963,28 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="D38" s="14">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1835,37 +2000,109 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="59">
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -1882,20 +2119,30 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="M12:M13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="D38:O38"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF39ECF-FD96-41AD-95F8-7A9826397D41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F11E7-1E23-4B27-9765-33D70B3404C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -190,17 +190,29 @@
     <t>extinguish subsystem</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>refine system architecture</t>
+  </si>
+  <si>
+    <t>refine system pattern</t>
+  </si>
+  <si>
+    <t>refine requirement diagram</t>
+  </si>
+  <si>
+    <t>refine use case diagram</t>
+  </si>
+  <si>
+    <t>refine contex diagram</t>
+  </si>
+  <si>
+    <t>refine sequence diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +243,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +285,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -468,14 +492,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -516,6 +567,96 @@
     <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,98 +669,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O44"/>
+  <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -964,33 +1028,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="27"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1046,43 +1110,43 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="27">
         <v>44297</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="27">
         <v>44295</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="42">
         <v>44297</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="42">
         <v>44295</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="27">
         <v>44297</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="27">
         <v>44295</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="42">
         <v>44295</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="27">
         <v>44297</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="27">
         <v>44295</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="42">
         <v>44297</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="42">
         <v>44295</v>
       </c>
     </row>
@@ -1093,19 +1157,19 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1114,7 +1178,7 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="12">
         <v>44298</v>
       </c>
@@ -1307,18 +1371,18 @@
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -1327,43 +1391,43 @@
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="27">
         <v>44304</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="27">
         <v>44302</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <v>44304</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="31">
         <v>44302</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="27">
         <v>44304</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="27">
         <v>44302</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="31">
         <v>44304</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="31">
         <v>44302</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="27">
         <v>44304</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="27">
         <v>44302</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="31">
         <v>44304</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="31">
         <v>44302</v>
       </c>
     </row>
@@ -1374,19 +1438,19 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -1395,7 +1459,7 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="11"/>
@@ -1422,7 +1486,7 @@
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
@@ -1447,7 +1511,7 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="12">
         <v>44309</v>
       </c>
@@ -1472,7 +1536,7 @@
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="4">
@@ -1497,7 +1561,7 @@
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="4"/>
@@ -1522,7 +1586,7 @@
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
@@ -1546,63 +1610,63 @@
         <v>35</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="14">
+      <c r="D20" s="44">
         <v>44310</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="27">
         <v>44312</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="27">
         <v>44310</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="28">
         <v>44312</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="42">
         <v>44310</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="27">
         <v>44312</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="27">
         <v>44310</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="28">
         <v>44312</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="42">
         <v>44310</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="27">
         <v>44312</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="27">
         <v>44310</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="28">
         <v>44312</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="42">
         <v>44310</v>
       </c>
     </row>
@@ -1611,54 +1675,54 @@
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="22"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="22"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="26"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="30"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="26"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="26"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1690,419 +1754,391 @@
         <v>35</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="14">
+      <c r="D26" s="44">
         <v>44312</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="42"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="27">
         <v>44316</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="24">
+      <c r="E27" s="20"/>
+      <c r="F27" s="28">
         <v>44316</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="23">
+      <c r="G27" s="14"/>
+      <c r="H27" s="27">
         <v>44316</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="24">
+      <c r="J27" s="28">
         <v>44316</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="23">
+      <c r="K27" s="15"/>
+      <c r="L27" s="27">
         <v>44316</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="24">
+      <c r="M27" s="12">
+        <v>44312</v>
+      </c>
+      <c r="N27" s="28">
         <v>44316</v>
       </c>
-      <c r="O27" s="40" t="s">
-        <v>51</v>
+      <c r="O27" s="14">
+        <v>44312</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="14">
+        <v>44312</v>
+      </c>
+      <c r="H28" s="27"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="23"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="40"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="42"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="23"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="23"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="14">
+        <v>44312</v>
+      </c>
+      <c r="L29" s="27"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="40"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="42"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="23"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="12">
+        <v>44312</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="23"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="43"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="42"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="23"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="12">
+        <v>44312</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="40"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="42"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="23"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="40"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15" ht="51.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="42"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="12">
+      <c r="D33" s="27"/>
+      <c r="E33" s="50">
         <v>44312</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="46">
+      <c r="F33" s="29"/>
+      <c r="G33" s="22">
         <v>44316</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="12">
         <v>44312</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="46">
+      <c r="J33" s="29"/>
+      <c r="K33" s="22">
         <v>44316</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="12">
+      <c r="L33" s="27"/>
+      <c r="M33" s="50">
         <v>44312</v>
       </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="47">
+      <c r="N33" s="29"/>
+      <c r="O33" s="23">
         <v>44316</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="42"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="14">
+        <v>44312</v>
+      </c>
+      <c r="H34" s="27"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="40"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="42"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="23"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="12">
+        <v>44312</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="14">
+        <v>44312</v>
+      </c>
+      <c r="L35" s="27"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="40" t="s">
-        <v>51</v>
+      <c r="N35" s="30"/>
+      <c r="O35" s="14">
+        <v>44312</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="44">
+        <v>44316</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="46"/>
+    </row>
+    <row r="37" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="12">
+        <v>44322</v>
+      </c>
+      <c r="E37" s="12">
+        <v>44322</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="14">
-        <v>44316</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="12">
+        <v>44322</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="4">
+        <v>44322</v>
+      </c>
+      <c r="O39" s="4">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4">
+        <v>44322</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="4">
+        <v>44322</v>
+      </c>
+      <c r="K41" s="48"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
+    <row r="42" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="L27:L35"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
+  <mergeCells count="61">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -2119,30 +2155,33 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="N21:N24"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K12:K13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="D38:O38"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F11E7-1E23-4B27-9765-33D70B3404C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A9F1F-F99D-48B6-AE18-2F2FB4765C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Todo</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -206,6 +203,30 @@
   </si>
   <si>
     <t>refine sequence diagram</t>
+  </si>
+  <si>
+    <t>design concept for breaker tools</t>
+  </si>
+  <si>
+    <t>design concept for moving system</t>
+  </si>
+  <si>
+    <t>design concept for buoy</t>
+  </si>
+  <si>
+    <t>3d modeling for moving system</t>
+  </si>
+  <si>
+    <t>3d modeling for brekern tool</t>
+  </si>
+  <si>
+    <t>3d modeling for body(lower part)</t>
+  </si>
+  <si>
+    <t>3d modeling for body(upper part. Including buoy part)</t>
+  </si>
+  <si>
+    <t>Todo(due date)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +547,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -597,6 +618,81 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -606,80 +702,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1013,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O42"/>
+  <dimension ref="A2:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:O42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1028,35 +1052,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,43 +1088,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1108,45 +1132,45 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="27">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="31">
         <v>44297</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>44295</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="30">
         <v>44297</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="30">
         <v>44295</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="31">
         <v>44297</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="31">
         <v>44295</v>
       </c>
-      <c r="J4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="42">
+      <c r="J4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="30">
         <v>44295</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="31">
         <v>44297</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="31">
         <v>44295</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="30">
         <v>44297</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="30">
         <v>44295</v>
       </c>
     </row>
@@ -1155,30 +1179,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="41"/>
       <c r="D6" s="12">
         <v>44298</v>
       </c>
@@ -1221,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12">
         <v>44300</v>
@@ -1268,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1279,7 +1303,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1293,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12">
         <v>44299</v>
@@ -1340,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12">
         <v>44299</v>
@@ -1369,65 +1393,65 @@
     <row r="11" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
+        <v>34</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="27">
+        <v>30</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="31">
         <v>44304</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="31">
         <v>44302</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="39">
         <v>44304</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="39">
         <v>44302</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="31">
         <v>44304</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="31">
         <v>44302</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="39">
         <v>44304</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="39">
         <v>44302</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="31">
         <v>44304</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="31">
         <v>44302</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="39">
         <v>44304</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="39">
         <v>44302</v>
       </c>
     </row>
@@ -1436,31 +1460,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1484,9 +1508,9 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="46"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
@@ -1509,9 +1533,9 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="38"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="46"/>
       <c r="D16" s="12">
         <v>44309</v>
       </c>
@@ -1534,9 +1558,9 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="4">
@@ -1559,9 +1583,9 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="46"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="4"/>
@@ -1584,9 +1608,9 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
@@ -1607,128 +1631,128 @@
     <row r="20" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="44">
+      <c r="D20" s="27">
         <v>44310</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="27">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="31">
         <v>44312</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="31">
         <v>44310</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="32">
         <v>44312</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="30">
         <v>44310</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="31">
         <v>44312</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="31">
         <v>44310</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="32">
         <v>44312</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="30">
         <v>44310</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="31">
         <v>44312</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="31">
         <v>44310</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="32">
         <v>44312</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="30">
         <v>44310</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="42"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="31"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="30"/>
-      <c r="H24" s="27"/>
+      <c r="F24" s="34"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="27"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="30"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="13"/>
@@ -1751,55 +1775,55 @@
     <row r="26" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="44">
+      <c r="D26" s="27">
         <v>44312</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
-      <c r="B27" s="24" t="s">
-        <v>38</v>
+      <c r="B27" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="27">
+        <v>45</v>
+      </c>
+      <c r="D27" s="31">
         <v>44316</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="28">
+      <c r="F27" s="32">
         <v>44316</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="27">
+      <c r="H27" s="31">
         <v>44316</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="28">
+      <c r="J27" s="32">
         <v>44316</v>
       </c>
       <c r="K27" s="15"/>
-      <c r="L27" s="27">
+      <c r="L27" s="31">
         <v>44316</v>
       </c>
       <c r="M27" s="12">
         <v>44312</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="32">
         <v>44316</v>
       </c>
       <c r="O27" s="14">
@@ -1808,134 +1832,134 @@
     </row>
     <row r="28" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="D28" s="31"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="14">
         <v>44312</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="29"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="27"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="29"/>
+      <c r="N28" s="33"/>
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="D29" s="31"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="27"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="29"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="14">
         <v>44312</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="D30" s="31"/>
       <c r="E30" s="12">
         <v>44312</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="29"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="29"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="31"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="12">
         <v>44312</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="27"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="15"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="33"/>
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:15" ht="51.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="50">
+        <v>44</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="36">
         <v>44312</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="22">
         <v>44316</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="12">
         <v>44312</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="22">
         <v>44316</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="50">
+      <c r="L33" s="31"/>
+      <c r="M33" s="36">
         <v>44312</v>
       </c>
-      <c r="N33" s="29"/>
+      <c r="N33" s="33"/>
       <c r="O33" s="23">
         <v>44316</v>
       </c>
@@ -1943,47 +1967,47 @@
     <row r="34" spans="1:15" ht="24.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="14">
         <v>44312</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="29"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="29"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="33"/>
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="30"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="12">
         <v>44312</v>
       </c>
-      <c r="J35" s="30"/>
+      <c r="J35" s="34"/>
       <c r="K35" s="14">
         <v>44312</v>
       </c>
-      <c r="L35" s="27"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="14">
         <v>44312</v>
       </c>
@@ -1991,28 +2015,28 @@
     <row r="36" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="44">
+      <c r="D36" s="27">
         <v>44316</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="46"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="12">
@@ -2035,7 +2059,7 @@
     <row r="38" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="11"/>
@@ -2045,7 +2069,7 @@
       <c r="H38" s="12">
         <v>44322</v>
       </c>
-      <c r="I38" s="49"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="11"/>
@@ -2056,7 +2080,7 @@
     <row r="39" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="11"/>
@@ -2079,7 +2103,7 @@
     <row r="40" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="11"/>
@@ -2087,7 +2111,7 @@
       <c r="F40" s="4">
         <v>44322</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="3"/>
@@ -2100,7 +2124,7 @@
     <row r="41" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="11"/>
@@ -2112,33 +2136,83 @@
       <c r="J41" s="4">
         <v>44322</v>
       </c>
-      <c r="K41" s="48"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="H43" s="52">
+        <v>44394</v>
+      </c>
+      <c r="J43" s="52">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="52">
+        <v>44394</v>
+      </c>
+      <c r="F44" s="52">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="52">
+        <v>44394</v>
+      </c>
+      <c r="N45" s="52">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -2155,18 +2229,20 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="M33:M34"/>
     <mergeCell ref="L27:L35"/>
     <mergeCell ref="N27:N35"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="L21:L24"/>
@@ -2175,13 +2251,15 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="F21:F24"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A9F1F-F99D-48B6-AE18-2F2FB4765C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC94202-146C-4912-9B4B-C93A9AFB2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -227,13 +227,25 @@
   </si>
   <si>
     <t>Todo(due date)</t>
+  </si>
+  <si>
+    <t>5/27 main gear, center gear</t>
+  </si>
+  <si>
+    <t>5/27 belt</t>
+  </si>
+  <si>
+    <t>5/27 support gear</t>
+  </si>
+  <si>
+    <t>5/27 electronic component socket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,15 +276,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,13 +311,8 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -418,19 +418,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -442,6 +429,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -449,105 +469,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="double">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -561,153 +506,126 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O50"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1052,33 +970,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1134,43 +1052,43 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="14">
         <v>44297</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="14">
         <v>44295</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <v>44297</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <v>44295</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="14">
         <v>44297</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="14">
         <v>44295</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="26">
         <v>44295</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="14">
         <v>44297</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="14">
         <v>44295</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="26">
         <v>44297</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="26">
         <v>44295</v>
       </c>
     </row>
@@ -1181,19 +1099,19 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1202,11 +1120,11 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="12">
+      <c r="C6" s="24"/>
+      <c r="D6" s="11">
         <v>44298</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>44297</v>
       </c>
       <c r="F6" s="4">
@@ -1215,10 +1133,10 @@
       <c r="G6" s="4">
         <v>44297</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>44298</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>44297</v>
       </c>
       <c r="J6" s="4">
@@ -1227,10 +1145,10 @@
       <c r="K6" s="4">
         <v>44297</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>44298</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>44297</v>
       </c>
       <c r="N6" s="4">
@@ -1247,13 +1165,13 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>44300</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>44298</v>
       </c>
       <c r="F7" s="4">
@@ -1262,10 +1180,10 @@
       <c r="G7" s="4">
         <v>44298</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>44300</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>44298</v>
       </c>
       <c r="J7" s="4">
@@ -1274,10 +1192,10 @@
       <c r="K7" s="4">
         <v>44298</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>44300</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>44298</v>
       </c>
       <c r="N7" s="4">
@@ -1294,21 +1212,21 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -1319,13 +1237,13 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>44299</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>44297</v>
       </c>
       <c r="F9" s="4">
@@ -1334,10 +1252,10 @@
       <c r="G9" s="4">
         <v>44297</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>44299</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>44297</v>
       </c>
       <c r="J9" s="4">
@@ -1346,10 +1264,10 @@
       <c r="K9" s="4">
         <v>44297</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>44299</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>44297</v>
       </c>
       <c r="N9" s="4">
@@ -1366,13 +1284,13 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>44299</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>44298</v>
       </c>
       <c r="F10" s="4">
@@ -1381,77 +1299,77 @@
       <c r="G10" s="4">
         <v>44298</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="14">
         <v>44304</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="14">
         <v>44302</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="20">
         <v>44304</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="20">
         <v>44302</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="14">
         <v>44304</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="14">
         <v>44302</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="20">
         <v>44304</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="20">
         <v>44302</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="14">
         <v>44304</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="14">
         <v>44302</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="20">
         <v>44304</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="20">
         <v>44302</v>
       </c>
     </row>
@@ -1462,19 +1380,19 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="40"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -1483,23 +1401,23 @@
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="4">
         <v>44309</v>
       </c>
       <c r="K14" s="4">
         <v>44306</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
@@ -1510,21 +1428,21 @@
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>44309</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>44306</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -1535,21 +1453,21 @@
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="12">
+      <c r="C16" s="18"/>
+      <c r="D16" s="11">
         <v>44309</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>44306</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -1560,21 +1478,21 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="4">
         <v>44309</v>
       </c>
       <c r="G17" s="4">
         <v>44306</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
@@ -1585,42 +1503,42 @@
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>44309</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>44306</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="4">
         <v>44309</v>
       </c>
@@ -1628,471 +1546,475 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="27">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32">
         <v>44310</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="38">
         <v>44312</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="38">
         <v>44310</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="26">
         <v>44312</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="26">
         <v>44310</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="38">
         <v>44312</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="38">
         <v>44310</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="26">
         <v>44312</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="26">
         <v>44310</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="38">
         <v>44312</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="38">
         <v>44310</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="26">
         <v>44312</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="26">
         <v>44310</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="37"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
       <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="34"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="34"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="37"/>
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41">
         <v>44311</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="4">
         <v>44311</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="5"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="5"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="37"/>
+      <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>44312</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="49" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="37"/>
+      <c r="B27" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="38">
         <v>44316</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="32">
+      <c r="E27" s="41"/>
+      <c r="F27" s="26">
         <v>44316</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="31">
+      <c r="G27" s="4"/>
+      <c r="H27" s="38">
         <v>44316</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="32">
+      <c r="I27" s="39"/>
+      <c r="J27" s="26">
         <v>44316</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="31">
+      <c r="K27" s="3"/>
+      <c r="L27" s="38">
         <v>44316</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="41">
         <v>44312</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="26">
         <v>44316</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="4">
         <v>44312</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="50"/>
+    <row r="28" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="37"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="14">
+      <c r="D28" s="38"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="4">
         <v>44312</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="50"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="37"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="14">
+      <c r="D29" s="38"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="4">
         <v>44312</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="50"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="37"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="12">
+      <c r="D30" s="38"/>
+      <c r="E30" s="41">
         <v>44312</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="19"/>
-    </row>
-    <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="51"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="37"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="12">
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="41">
         <v>44312</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="16"/>
-    </row>
-    <row r="32" spans="1:15" ht="43.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="37"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="16"/>
-    </row>
-    <row r="33" spans="1:15" ht="51.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="37"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="36">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38">
         <v>44312</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="22">
+      <c r="F33" s="26"/>
+      <c r="G33" s="12">
         <v>44316</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="12">
+      <c r="H33" s="38"/>
+      <c r="I33" s="41">
         <v>44312</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="22">
+      <c r="J33" s="26"/>
+      <c r="K33" s="12">
         <v>44316</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="36">
+      <c r="L33" s="38"/>
+      <c r="M33" s="38">
         <v>44312</v>
       </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="23">
+      <c r="N33" s="26"/>
+      <c r="O33" s="12">
         <v>44316</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="24.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:15" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="37"/>
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="14">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="4">
         <v>44312</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="16"/>
-    </row>
-    <row r="35" spans="1:15" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="37"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="12">
+      <c r="C35" s="27"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="41">
         <v>44312</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="14">
+      <c r="J35" s="26"/>
+      <c r="K35" s="4">
         <v>44312</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="14">
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="4">
         <v>44312</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="37"/>
+      <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>44316</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="29"/>
-    </row>
-    <row r="37" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="37"/>
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="12">
+      <c r="D37" s="41">
         <v>44322</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="41">
         <v>44322</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="44.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="37"/>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="12">
+      <c r="H38" s="41">
         <v>44322</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="41">
+        <v>44322</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="37"/>
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
       <c r="N39" s="4">
         <v>44322</v>
       </c>
@@ -2100,119 +2022,325 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="37"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="4">
         <v>44322</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="4">
+        <v>44322</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="37"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
       <c r="J41" s="4">
         <v>44322</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="K41" s="4">
+        <v>44322</v>
+      </c>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="37"/>
+      <c r="B42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="44">
+        <v>44330</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+    </row>
     <row r="43" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="H43" s="52">
-        <v>44394</v>
-      </c>
-      <c r="J43" s="52">
-        <v>44394</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="41">
+        <v>44333</v>
+      </c>
+      <c r="I43" s="41">
+        <v>44332</v>
+      </c>
+      <c r="J43" s="4">
+        <v>44333</v>
+      </c>
+      <c r="K43" s="4">
+        <v>44332</v>
+      </c>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="52">
-        <v>44394</v>
-      </c>
-      <c r="F44" s="52">
-        <v>44394</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="41">
+        <v>44333</v>
+      </c>
+      <c r="E44" s="41">
+        <v>44332</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G44" s="4">
+        <v>44332</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="52">
-        <v>44394</v>
-      </c>
-      <c r="N45" s="52">
-        <v>44394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="41">
+        <v>44333</v>
+      </c>
+      <c r="M45" s="41">
+        <v>44332</v>
+      </c>
+      <c r="N45" s="4">
+        <v>44333</v>
+      </c>
+      <c r="O45" s="4">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="37"/>
+      <c r="B46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="44">
+        <v>44337</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+    </row>
+    <row r="47" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A47" s="37"/>
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="41">
+        <v>44343</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="41">
+        <v>44343</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="4">
+        <v>44343</v>
+      </c>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="37"/>
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="41">
+        <v>44343</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44343</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44343</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="37"/>
+      <c r="B49" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="41">
+        <v>44343</v>
+      </c>
+      <c r="M49" s="41">
+        <v>44343</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A50" s="37"/>
+      <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
+      <c r="C50" s="3"/>
+      <c r="D50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="41">
+        <v>44343</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="4">
+        <v>44343</v>
+      </c>
+      <c r="O50" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
+  <mergeCells count="63">
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -2229,38 +2357,22 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L27:L35"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC94202-146C-4912-9B4B-C93A9AFB2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F352F98-77A3-4706-9507-F4164697AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -239,13 +239,31 @@
   </si>
   <si>
     <t>5/27 electronic component socket</t>
+  </si>
+  <si>
+    <t>main and calculate distance function</t>
+  </si>
+  <si>
+    <t>initial location function</t>
+  </si>
+  <si>
+    <t>map function</t>
+  </si>
+  <si>
+    <t>move horizontal function</t>
+  </si>
+  <si>
+    <t>move vertical function</t>
+  </si>
+  <si>
+    <t>movement display function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +294,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +334,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,26 +516,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -533,9 +575,76 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -551,81 +660,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:O52"/>
+  <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -969,36 +1020,36 @@
     <col min="4" max="16384" width="8.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1045,82 +1096,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="33">
         <v>44297</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="33">
         <v>44295</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>44297</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>44295</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="33">
         <v>44297</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="33">
         <v>44295</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>44295</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="33">
         <v>44297</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="33">
         <v>44295</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>44297</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>44295</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="11">
         <v>44298</v>
       </c>
@@ -1157,8 +1210,9 @@
       <c r="O6" s="4">
         <v>44297</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1204,8 +1258,9 @@
       <c r="O7" s="4">
         <v>44298</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1229,8 +1284,9 @@
       <c r="M8" s="10"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1276,8 +1332,9 @@
       <c r="O9" s="4">
         <v>44297</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:16" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1307,101 +1364,105 @@
       <c r="M10" s="10"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="43"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="43"/>
+    </row>
+    <row r="12" spans="1:16" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="33">
         <v>44304</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="33">
         <v>44302</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="31">
         <v>44304</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="31">
         <v>44302</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="33">
         <v>44304</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="33">
         <v>44302</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="31">
         <v>44304</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="31">
         <v>44302</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="33">
         <v>44304</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="33">
         <v>44302</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="31">
         <v>44304</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="31">
         <v>44302</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="P12" s="43"/>
+    </row>
+    <row r="13" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="C13" s="39"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="43"/>
+    </row>
+    <row r="14" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10"/>
@@ -1420,15 +1481,16 @@
       <c r="M14" s="10"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="P14" s="43"/>
+    </row>
+    <row r="15" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
@@ -1445,15 +1507,16 @@
       <c r="M15" s="11"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="P15" s="43"/>
+    </row>
+    <row r="16" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="11">
         <v>44309</v>
       </c>
@@ -1470,15 +1533,16 @@
       <c r="M16" s="11"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="P16" s="43"/>
+    </row>
+    <row r="17" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="4">
@@ -1495,15 +1559,16 @@
       <c r="M17" s="10"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P17" s="43"/>
+    </row>
+    <row r="18" spans="1:16" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="4"/>
@@ -1520,15 +1585,16 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P18" s="43"/>
+    </row>
+    <row r="19" spans="1:16" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="4"/>
@@ -1545,564 +1611,588 @@
       <c r="O19" s="4">
         <v>44306</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30" t="s">
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32">
+      <c r="C20" s="16"/>
+      <c r="D20" s="27">
         <v>44310</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-    </row>
-    <row r="21" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="37"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="43"/>
+    </row>
+    <row r="21" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="26">
         <v>44312</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="26">
         <v>44310</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>44312</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>44310</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="26">
         <v>44312</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="26">
         <v>44310</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>44312</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="25">
         <v>44310</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="26">
         <v>44312</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="26">
         <v>44310</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="25">
         <v>44312</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="25">
         <v>44310</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="37"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="37"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20">
         <v>44311</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="4">
         <v>44311</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="13"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="39"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="13"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="37"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
       <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>44312</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="27" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="43"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="26">
         <v>44316</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="26">
+      <c r="E27" s="20"/>
+      <c r="F27" s="25">
         <v>44316</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="38">
+      <c r="H27" s="26">
         <v>44316</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="26">
+      <c r="I27" s="18"/>
+      <c r="J27" s="25">
         <v>44316</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="38">
+      <c r="L27" s="26">
         <v>44316</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="20">
         <v>44312</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="25">
         <v>44316</v>
       </c>
       <c r="O27" s="4">
         <v>44312</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="27"/>
+      <c r="P27" s="43"/>
+    </row>
+    <row r="28" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="4">
         <v>44312</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="27"/>
+      <c r="P28" s="43"/>
+    </row>
+    <row r="29" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="4">
         <v>44312</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="27"/>
+      <c r="P29" s="43"/>
+    </row>
+    <row r="30" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="41">
+      <c r="D30" s="26"/>
+      <c r="E30" s="20">
         <v>44312</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="27"/>
+      <c r="P30" s="43"/>
+    </row>
+    <row r="31" spans="1:16" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="41">
+      <c r="H31" s="26"/>
+      <c r="I31" s="20">
         <v>44312</v>
       </c>
-      <c r="J31" s="26"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="37"/>
+      <c r="P31" s="43"/>
+    </row>
+    <row r="32" spans="1:16" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="37"/>
+      <c r="P32" s="43"/>
+    </row>
+    <row r="33" spans="1:16" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26">
         <v>44312</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="12">
         <v>44316</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="41">
+      <c r="H33" s="26"/>
+      <c r="I33" s="20">
         <v>44312</v>
       </c>
-      <c r="J33" s="26"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="12">
         <v>44316</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38">
+      <c r="L33" s="26"/>
+      <c r="M33" s="26">
         <v>44312</v>
       </c>
-      <c r="N33" s="26"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="12">
         <v>44316</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="37"/>
+      <c r="P33" s="43"/>
+    </row>
+    <row r="34" spans="1:16" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="4">
         <v>44312</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="37"/>
+      <c r="P34" s="43"/>
+    </row>
+    <row r="35" spans="1:16" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="41">
+      <c r="H35" s="26"/>
+      <c r="I35" s="20">
         <v>44312</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="4">
         <v>44312</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="4">
         <v>44312</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="37"/>
+      <c r="P35" s="43"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" s="17"/>
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="26">
+      <c r="D36" s="25">
         <v>44316</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="37" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="37"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="43"/>
+    </row>
+    <row r="37" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="41">
+      <c r="D37" s="20">
         <v>44322</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="20">
         <v>44322</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="37"/>
+      <c r="P37" s="43"/>
+    </row>
+    <row r="38" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="41">
+      <c r="H38" s="20">
         <v>44322</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="20">
         <v>44322</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="37"/>
+      <c r="P38" s="43"/>
+    </row>
+    <row r="39" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="4">
         <v>44322</v>
       </c>
       <c r="O39" s="4">
         <v>44322</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="37"/>
+      <c r="P39" s="43"/>
+    </row>
+    <row r="40" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="4">
         <v>44322</v>
       </c>
       <c r="G40" s="4">
         <v>44322</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="37"/>
+      <c r="P40" s="43"/>
+    </row>
+    <row r="41" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="4">
         <v>44322</v>
       </c>
       <c r="K41" s="4">
         <v>44322</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="37"/>
+      <c r="P41" s="43"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" s="17"/>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="44">
+      <c r="C42" s="21"/>
+      <c r="D42" s="22">
         <v>44330</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-    </row>
-    <row r="43" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="37"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="44"/>
+    </row>
+    <row r="43" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="39"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="41">
+      <c r="H43" s="20">
         <v>44333</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="20">
         <v>44332</v>
       </c>
       <c r="J43" s="4">
@@ -2111,21 +2201,22 @@
       <c r="K43" s="4">
         <v>44332</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="37"/>
+      <c r="P43" s="44"/>
+    </row>
+    <row r="44" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="41">
+      <c r="D44" s="20">
         <v>44333</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="20">
         <v>44332</v>
       </c>
       <c r="F44" s="4">
@@ -2134,33 +2225,34 @@
       <c r="G44" s="4">
         <v>44332</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="37"/>
+      <c r="P44" s="44"/>
+    </row>
+    <row r="45" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="41">
+      <c r="L45" s="20">
         <v>44333</v>
       </c>
-      <c r="M45" s="41">
+      <c r="M45" s="20">
         <v>44332</v>
       </c>
       <c r="N45" s="4">
@@ -2169,46 +2261,48 @@
       <c r="O45" s="4">
         <v>44332</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="37"/>
+      <c r="P45" s="44"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="44">
+      <c r="D46" s="22">
         <v>44337</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-    </row>
-    <row r="47" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A47" s="37"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="44"/>
+    </row>
+    <row r="47" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A47" s="17"/>
       <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="20">
         <v>44343</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="20">
         <v>44343</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -2217,21 +2311,22 @@
       <c r="K47" s="4">
         <v>44343</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A48" s="37"/>
+      <c r="P47" s="44"/>
+    </row>
+    <row r="48" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="17"/>
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="20">
         <v>44343</v>
       </c>
       <c r="F48" s="4">
@@ -2240,107 +2335,306 @@
       <c r="G48" s="4">
         <v>44343</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="37"/>
+      <c r="P48" s="44"/>
+    </row>
+    <row r="49" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="17"/>
       <c r="B49" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="41">
+      <c r="L49" s="20">
         <v>44343</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="20">
         <v>44343</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A50" s="37"/>
+      <c r="P49" s="44"/>
+    </row>
+    <row r="50" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A50" s="17"/>
       <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="20">
         <v>44343</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="4">
         <v>44343</v>
       </c>
       <c r="O50" s="4">
         <v>44343</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36" t="s">
+      <c r="P50" s="46"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" s="17"/>
+      <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="25">
+        <v>44347</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="45"/>
+    </row>
+    <row r="52" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="17"/>
+      <c r="B52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="4">
+        <v>44349</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="45"/>
+    </row>
+    <row r="53" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="17"/>
+      <c r="B53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="20">
+        <v>44349</v>
+      </c>
+      <c r="M53" s="18"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="45"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" s="17"/>
+      <c r="B54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="20">
+        <v>44349</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="45"/>
+    </row>
+    <row r="55" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="17"/>
+      <c r="B55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="20">
+        <v>44349</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="45"/>
+    </row>
+    <row r="56" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="17"/>
+      <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="4">
+        <v>44349</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="45"/>
+    </row>
+    <row r="57" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="17"/>
+      <c r="B57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="4">
+        <v>44349</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="45"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" s="17"/>
+      <c r="B58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="45"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" s="17"/>
+      <c r="P59" s="45"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A60" s="17"/>
+      <c r="P60" s="45"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" s="17"/>
+      <c r="P61" s="45"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" s="17"/>
+      <c r="P62" s="45"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A63" s="17"/>
+      <c r="P63" s="45"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A64" s="17"/>
+      <c r="P64" s="45"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A65" s="17"/>
+      <c r="P65" s="45"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A66" s="17"/>
+      <c r="P66" s="45"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A67" s="17"/>
+      <c r="P67" s="45"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A68" s="17"/>
+      <c r="P68" s="45"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A69" s="17"/>
+      <c r="P69" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L27:L35"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
+  <mergeCells count="67">
+    <mergeCell ref="P4:P41"/>
+    <mergeCell ref="P42:P50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="D58:O58"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="O4:O5"/>
@@ -2357,20 +2651,39 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/roboHood report.xlsx
+++ b/roboHood report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F352F98-77A3-4706-9507-F4164697AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F7A8E-7B2B-447D-BCE3-7F00853CAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" activeTab="1" xr2:uid="{EBD0D196-AFEB-475C-A919-955ABF4AEA80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -241,22 +241,28 @@
     <t>5/27 electronic component socket</t>
   </si>
   <si>
-    <t>main and calculate distance function</t>
-  </si>
-  <si>
-    <t>initial location function</t>
-  </si>
-  <si>
-    <t>map function</t>
-  </si>
-  <si>
-    <t>move horizontal function</t>
-  </si>
-  <si>
-    <t>move vertical function</t>
-  </si>
-  <si>
-    <t>movement display function</t>
+    <t>5/31/2021 (task 1)</t>
+  </si>
+  <si>
+    <t>move function</t>
+  </si>
+  <si>
+    <t>(task 2)</t>
+  </si>
+  <si>
+    <t>(task 3)</t>
+  </si>
+  <si>
+    <t>(task 4)</t>
+  </si>
+  <si>
+    <t>find path algorothm</t>
+  </si>
+  <si>
+    <t>retun foward and reversepath</t>
+  </si>
+  <si>
+    <t>add destroy obstacle function</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -597,80 +603,83 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA8CEF-308A-4501-8935-9C3DEAEBFEA2}">
-  <dimension ref="A2:P69"/>
+  <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:O58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1021,33 +1030,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1103,46 +1112,46 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="35">
         <v>44297</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="35">
         <v>44295</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="26">
         <v>44297</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="26">
         <v>44295</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="35">
         <v>44297</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="35">
         <v>44295</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="26">
         <v>44295</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="35">
         <v>44297</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="35">
         <v>44295</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="26">
         <v>44297</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="26">
         <v>44295</v>
       </c>
-      <c r="P4" s="43"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
@@ -1151,20 +1160,20 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1173,7 +1182,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="11">
         <v>44298</v>
       </c>
@@ -1210,7 +1219,7 @@
       <c r="O6" s="4">
         <v>44297</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -1258,7 +1267,7 @@
       <c r="O7" s="4">
         <v>44298</v>
       </c>
-      <c r="P7" s="43"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -1284,7 +1293,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="43"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -1332,7 +1341,7 @@
       <c r="O9" s="4">
         <v>44297</v>
       </c>
-      <c r="P9" s="43"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
@@ -1364,26 +1373,26 @@
       <c r="M10" s="10"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="43"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -1392,46 +1401,46 @@
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="35">
         <v>44304</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="35">
         <v>44302</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="36">
         <v>44304</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="36">
         <v>44302</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="35">
         <v>44304</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="35">
         <v>44302</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="36">
         <v>44304</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="36">
         <v>44302</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="35">
         <v>44304</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="35">
         <v>44302</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="36">
         <v>44304</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="36">
         <v>44302</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
@@ -1440,20 +1449,20 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="43"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -1462,7 +1471,7 @@
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10"/>
@@ -1481,7 +1490,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="43"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -1490,7 +1499,7 @@
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
@@ -1507,7 +1516,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="43"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -1516,7 +1525,7 @@
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="11">
         <v>44309</v>
       </c>
@@ -1533,7 +1542,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="43"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -1542,7 +1551,7 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="4">
@@ -1559,7 +1568,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="43"/>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
@@ -1568,7 +1577,7 @@
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="4"/>
@@ -1585,7 +1594,7 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="43"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="73.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
@@ -1594,7 +1603,7 @@
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="4"/>
@@ -1611,7 +1620,7 @@
       <c r="O19" s="4">
         <v>44306</v>
       </c>
-      <c r="P19" s="43"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
@@ -1619,107 +1628,107 @@
         <v>34</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="27">
+      <c r="D20" s="42">
         <v>44310</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="29">
         <v>44312</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="29">
         <v>44310</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="26">
         <v>44312</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="26">
         <v>44310</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="29">
         <v>44312</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="29">
         <v>44310</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="26">
         <v>44312</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="26">
         <v>44310</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="29">
         <v>44312</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="29">
         <v>44310</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="26">
         <v>44312</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="26">
         <v>44310</v>
       </c>
-      <c r="P21" s="43"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="43"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="43"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="17"/>
@@ -1727,19 +1736,19 @@
         <v>42</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="43"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
@@ -1763,7 +1772,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="13"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="43"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="17"/>
@@ -1771,165 +1780,165 @@
         <v>34</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="25">
+      <c r="D26" s="26">
         <v>44312</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="43"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="29">
         <v>44316</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="25">
+      <c r="F27" s="26">
         <v>44316</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="26">
+      <c r="H27" s="29">
         <v>44316</v>
       </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="25">
+      <c r="J27" s="26">
         <v>44316</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="26">
+      <c r="L27" s="29">
         <v>44316</v>
       </c>
       <c r="M27" s="20">
         <v>44312</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="26">
         <v>44316</v>
       </c>
       <c r="O27" s="4">
         <v>44312</v>
       </c>
-      <c r="P27" s="43"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="4">
         <v>44312</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="43"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="4">
         <v>44312</v>
       </c>
-      <c r="L29" s="26"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="43"/>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="17"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="20">
         <v>44312</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="26"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="43"/>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
-      <c r="B31" s="24"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="20">
         <v>44312</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="26"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="43"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="1:16" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="18"/>
-      <c r="N32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="43"/>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
@@ -1939,81 +1948,81 @@
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29">
         <v>44312</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="12">
         <v>44316</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="20">
         <v>44312</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="12">
         <v>44316</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29">
         <v>44312</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="12">
         <v>44316</v>
       </c>
-      <c r="P33" s="43"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="1:16" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="4">
         <v>44312</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="25"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="43"/>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="25"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="20">
         <v>44312</v>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="4">
         <v>44312</v>
       </c>
-      <c r="L35" s="26"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="4">
         <v>44312</v>
       </c>
-      <c r="P35" s="43"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="17"/>
@@ -2021,21 +2030,21 @@
         <v>34</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="25">
+      <c r="D36" s="26">
         <v>44316</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="43"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
@@ -2059,7 +2068,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="43"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A38" s="17"/>
@@ -2083,7 +2092,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="43"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
@@ -2107,7 +2116,7 @@
       <c r="O39" s="4">
         <v>44322</v>
       </c>
-      <c r="P39" s="43"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A40" s="17"/>
@@ -2131,7 +2140,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="43"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
@@ -2155,7 +2164,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="43"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="17"/>
@@ -2163,21 +2172,21 @@
         <v>34</v>
       </c>
       <c r="C42" s="21"/>
-      <c r="D42" s="22">
+      <c r="D42" s="46">
         <v>44330</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="44"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
@@ -2205,7 +2214,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="44"/>
+      <c r="P43" s="24"/>
     </row>
     <row r="44" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44" s="17"/>
@@ -2233,7 +2242,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="44"/>
+      <c r="P44" s="24"/>
     </row>
     <row r="45" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
@@ -2261,7 +2270,7 @@
       <c r="O45" s="4">
         <v>44332</v>
       </c>
-      <c r="P45" s="44"/>
+      <c r="P45" s="24"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="17"/>
@@ -2269,21 +2278,21 @@
         <v>34</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="22">
+      <c r="D46" s="46">
         <v>44337</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="44"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="24"/>
     </row>
     <row r="47" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
@@ -2315,7 +2324,7 @@
       <c r="M47" s="18"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="44"/>
+      <c r="P47" s="24"/>
     </row>
     <row r="48" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A48" s="17"/>
@@ -2343,7 +2352,7 @@
       <c r="M48" s="18"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="44"/>
+      <c r="P48" s="24"/>
     </row>
     <row r="49" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="44"/>
+      <c r="P49" s="24"/>
     </row>
     <row r="50" spans="1:16" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
@@ -2395,7 +2404,7 @@
       <c r="O50" s="4">
         <v>44343</v>
       </c>
-      <c r="P50" s="46"/>
+      <c r="P50" s="25"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
@@ -2403,153 +2412,207 @@
         <v>34</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="25">
-        <v>44347</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="45"/>
-    </row>
-    <row r="52" spans="1:16" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="D51" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="17"/>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="D52" s="20">
+        <v>44351</v>
+      </c>
+      <c r="E52" s="20">
+        <v>44349</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44351</v>
+      </c>
+      <c r="G52" s="4">
+        <v>44349</v>
+      </c>
+      <c r="H52" s="20">
+        <v>44351</v>
+      </c>
+      <c r="I52" s="20">
+        <v>44349</v>
+      </c>
+      <c r="J52" s="4">
+        <v>44351</v>
+      </c>
+      <c r="K52" s="4">
+        <v>44349</v>
+      </c>
+      <c r="L52" s="20">
+        <v>44351</v>
+      </c>
+      <c r="M52" s="20">
+        <v>44349</v>
+      </c>
       <c r="N52" s="4">
+        <v>44351</v>
+      </c>
+      <c r="O52" s="4">
         <v>44349</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="45"/>
-    </row>
-    <row r="53" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
-      <c r="B53" s="3" t="s">
-        <v>69</v>
+      <c r="B53" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="20">
-        <v>44349</v>
-      </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="45"/>
+      <c r="D53" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="22"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="17"/>
-      <c r="B54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="20">
-        <v>44349</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="45"/>
-    </row>
-    <row r="55" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="11">
+        <v>44358</v>
+      </c>
+      <c r="E54" s="11">
+        <v>44356</v>
+      </c>
+      <c r="F54" s="47">
+        <v>44358</v>
+      </c>
+      <c r="G54" s="47">
+        <v>44356</v>
+      </c>
+      <c r="H54" s="11">
+        <v>44358</v>
+      </c>
+      <c r="I54" s="11">
+        <v>44356</v>
+      </c>
+      <c r="J54" s="47">
+        <v>44358</v>
+      </c>
+      <c r="K54" s="47">
+        <v>44356</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="11"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="22"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="20">
-        <v>44349</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="45"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="22"/>
     </row>
     <row r="56" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="17"/>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
+      <c r="D56" s="20">
+        <v>44365</v>
+      </c>
+      <c r="E56" s="20">
+        <v>44363</v>
+      </c>
       <c r="F56" s="4">
-        <v>44349</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+        <v>44365</v>
+      </c>
+      <c r="G56" s="4">
+        <v>44363</v>
+      </c>
+      <c r="H56" s="20">
+        <v>44365</v>
+      </c>
+      <c r="I56" s="20">
+        <v>44363</v>
+      </c>
+      <c r="J56" s="4">
+        <v>44365</v>
+      </c>
+      <c r="K56" s="4">
+        <v>44363</v>
+      </c>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="45"/>
+      <c r="P56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A57" s="17"/>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="20">
+        <v>44365</v>
+      </c>
+      <c r="E57" s="20">
+        <v>44363</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44365</v>
+      </c>
+      <c r="G57" s="4">
+        <v>44363</v>
+      </c>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="4">
-        <v>44349</v>
-      </c>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="45"/>
+      <c r="P57" s="22"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="17"/>
@@ -2557,82 +2620,85 @@
         <v>34</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="45"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D58" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="22"/>
+    </row>
+    <row r="59" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="17"/>
-      <c r="P59" s="45"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="17"/>
-      <c r="P60" s="45"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="17"/>
-      <c r="P61" s="45"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
-      <c r="P62" s="45"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="17"/>
-      <c r="P63" s="45"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="17"/>
-      <c r="P64" s="45"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="17"/>
-      <c r="P65" s="45"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="17"/>
-      <c r="P66" s="45"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="17"/>
-      <c r="P67" s="45"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="17"/>
-      <c r="P68" s="45"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="17"/>
-      <c r="P69" s="45"/>
+      <c r="B59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="20">
+        <v>44372</v>
+      </c>
+      <c r="E59" s="20">
+        <v>44370</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="P4:P41"/>
-    <mergeCell ref="P42:P50"/>
-    <mergeCell ref="D51:O51"/>
+  <mergeCells count="69">
+    <mergeCell ref="D55:O55"/>
     <mergeCell ref="D58:O58"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="C4:C6"/>
@@ -2649,41 +2715,22 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L27:L35"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="P4:P41"/>
+    <mergeCell ref="P42:P50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
